--- a/diseño/PERSONAL.xlsx
+++ b/diseño/PERSONAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="82">
   <si>
     <t>nombres</t>
   </si>
@@ -41,9 +41,6 @@
     <t>cargo</t>
   </si>
   <si>
-    <t>nit</t>
-  </si>
-  <si>
     <t>expedido</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
     <t>MERLO</t>
   </si>
   <si>
-    <t>pertenece_a</t>
-  </si>
-  <si>
     <t>PERSONAL GOBIERNO AUTONOMO MUNICIPAL DE LA PAZ</t>
   </si>
   <si>
@@ -273,6 +267,9 @@
   </si>
   <si>
     <t>VALVERDE</t>
+  </si>
+  <si>
+    <t>establecimiento</t>
   </si>
 </sst>
 </file>
@@ -650,19 +647,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
-    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -676,33 +673,30 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>5473075</v>
       </c>
-      <c r="E2" s="2">
-        <v>5473075</v>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -710,25 +704,22 @@
       <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>4923037</v>
       </c>
-      <c r="E3" s="2">
-        <v>4923037</v>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -736,25 +727,22 @@
       <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4">
         <v>2446762</v>
       </c>
-      <c r="E4" s="4">
-        <v>2446762</v>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -762,25 +750,22 @@
       <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>4827286</v>
       </c>
-      <c r="E5" s="2">
-        <v>4827286</v>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -788,25 +773,22 @@
       <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>6068680</v>
       </c>
-      <c r="E6" s="2">
-        <v>6068680</v>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -814,638 +796,564 @@
       <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2">
         <v>4294227</v>
       </c>
-      <c r="E7" s="2">
-        <v>4294227</v>
+      <c r="E7" t="s">
+        <v>17</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
         <v>5474117</v>
       </c>
-      <c r="E8" s="7">
-        <v>5474117</v>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7">
         <v>4830509</v>
       </c>
-      <c r="E9" s="7">
-        <v>4830509</v>
+      <c r="E9" t="s">
+        <v>17</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>9171549</v>
       </c>
-      <c r="E10" s="2">
-        <v>9171549</v>
+      <c r="E10" t="s">
+        <v>17</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="7">
         <v>2601150</v>
       </c>
-      <c r="E11" s="7">
-        <v>2601150</v>
+      <c r="E11" t="s">
+        <v>17</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="7">
         <v>6011483</v>
       </c>
-      <c r="E12" s="7">
-        <v>6011483</v>
+      <c r="E12" t="s">
+        <v>17</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="B13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
       </c>
       <c r="D13" s="9">
         <v>4839981</v>
       </c>
-      <c r="E13" s="9">
-        <v>4839981</v>
+      <c r="E13" t="s">
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
         <v>19</v>
       </c>
-      <c r="H13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>2053248</v>
       </c>
-      <c r="E14" s="2">
-        <v>2053248</v>
+      <c r="E14" t="s">
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
       </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="2">
         <v>3495733</v>
       </c>
-      <c r="E15" s="2">
-        <v>3495733</v>
+      <c r="E15" t="s">
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
       </c>
-      <c r="H15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
       </c>
       <c r="D16" s="4">
         <v>3413215</v>
       </c>
-      <c r="E16" s="4">
-        <v>3413215</v>
+      <c r="E16" t="s">
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
         <v>3321695</v>
       </c>
-      <c r="E17" s="7">
-        <v>3321695</v>
+      <c r="E17" t="s">
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
         <v>5729329</v>
       </c>
-      <c r="E18" s="7">
-        <v>5729329</v>
+      <c r="E18" t="s">
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4">
         <v>4336904</v>
       </c>
-      <c r="E19" s="4">
-        <v>4336904</v>
+      <c r="E19" t="s">
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>58</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
       </c>
       <c r="D20" s="9">
         <v>3453055</v>
       </c>
-      <c r="E20" s="9">
-        <v>3453055</v>
+      <c r="E20" t="s">
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
         <v>61</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>63</v>
       </c>
       <c r="D21" s="7">
         <v>8579753</v>
       </c>
-      <c r="E21" s="7">
-        <v>8579753</v>
+      <c r="E21" t="s">
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
-      </c>
-      <c r="B22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" t="s">
-        <v>66</v>
       </c>
       <c r="D22" s="9">
         <v>1395958</v>
       </c>
-      <c r="E22" s="9">
-        <v>1395958</v>
+      <c r="E22" t="s">
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
       </c>
-      <c r="H22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="2">
         <v>4315403</v>
       </c>
-      <c r="E23" s="2">
-        <v>4315403</v>
+      <c r="E23" t="s">
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
       </c>
-      <c r="H23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4">
         <v>3535272</v>
       </c>
-      <c r="E24" s="4">
-        <v>3535272</v>
+      <c r="E24" t="s">
+        <v>69</v>
       </c>
       <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>71</v>
       </c>
-      <c r="G24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2">
         <v>2331832</v>
       </c>
-      <c r="E25" s="2">
-        <v>2331832</v>
+      <c r="E25" t="s">
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26" s="7">
         <v>4314993</v>
       </c>
-      <c r="E26" s="7">
-        <v>4314993</v>
+      <c r="E26" t="s">
+        <v>69</v>
       </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
-      </c>
-      <c r="H26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D27" s="7">
         <v>2684633</v>
       </c>
-      <c r="E27" s="7">
-        <v>2684633</v>
+      <c r="E27" t="s">
+        <v>69</v>
       </c>
       <c r="F27" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="2">
         <v>5993296</v>
       </c>
-      <c r="E28" s="2">
-        <v>5993296</v>
+      <c r="E28" t="s">
+        <v>69</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D29" s="2">
         <v>4955915</v>
       </c>
-      <c r="E29" s="2">
-        <v>4955915</v>
+      <c r="E29" t="s">
+        <v>69</v>
       </c>
       <c r="F29" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" t="s">
-        <v>82</v>
       </c>
       <c r="D30" s="7">
         <v>4244546</v>
       </c>
-      <c r="E30" s="7">
-        <v>4244546</v>
+      <c r="E30" t="s">
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <customProperties>
-    <customPr name="LastActive" r:id="rId1"/>
+    <customPr name="LastActive" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
--- a/diseño/PERSONAL.xlsx
+++ b/diseño/PERSONAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="83">
   <si>
     <t>nombres</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>establecimiento</t>
+  </si>
+  <si>
+    <t>GOBIERNO AUTONOMO MUNICIPAL DE LA PAZ</t>
   </si>
 </sst>
 </file>
@@ -649,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1349,7 @@
         <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
